--- a/templates/AutomationOrg/RSTK-9519-Disassembly Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9519-Disassembly Work Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E828B5-C1A6-486B-B89B-E8AE41AEBFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D3158-95D5-42C0-9C50-0CB317573572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,10 +550,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -579,23 +579,6 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
